--- a/data/pca/factorExposure/factorExposure_2017-01-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01245805679727045</v>
+        <v>0.01130313408235179</v>
       </c>
       <c r="C2">
-        <v>-0.01584033122860933</v>
+        <v>-0.03995163112104363</v>
       </c>
       <c r="D2">
-        <v>-0.03255490287814003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03125363105706483</v>
+      </c>
+      <c r="E2">
+        <v>0.05104796411169726</v>
+      </c>
+      <c r="F2">
+        <v>0.003823289727279038</v>
+      </c>
+      <c r="G2">
+        <v>0.1143437632389862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0505357444143571</v>
+        <v>0.03878635544956335</v>
       </c>
       <c r="C3">
-        <v>0.02722116288946781</v>
+        <v>-0.1003279178896889</v>
       </c>
       <c r="D3">
-        <v>-0.1101991944580315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01764348019053622</v>
+      </c>
+      <c r="E3">
+        <v>0.09727387160529359</v>
+      </c>
+      <c r="F3">
+        <v>0.01847770228736978</v>
+      </c>
+      <c r="G3">
+        <v>0.1329844965207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03780675843713561</v>
+        <v>0.05483488884126439</v>
       </c>
       <c r="C4">
-        <v>0.0005691997268959471</v>
+        <v>-0.06677340698300442</v>
       </c>
       <c r="D4">
-        <v>-0.06510232097418629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02553219603514544</v>
+      </c>
+      <c r="E4">
+        <v>0.0415116117448797</v>
+      </c>
+      <c r="F4">
+        <v>0.002367810955309143</v>
+      </c>
+      <c r="G4">
+        <v>0.1013537898439036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01409349804480545</v>
+        <v>0.03455349649538823</v>
       </c>
       <c r="C6">
-        <v>9.32636144917483e-05</v>
+        <v>-0.0512564139644565</v>
       </c>
       <c r="D6">
-        <v>-0.05701283804689702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01816907421118084</v>
+      </c>
+      <c r="E6">
+        <v>0.0468964635365605</v>
+      </c>
+      <c r="F6">
+        <v>0.003201945051322473</v>
+      </c>
+      <c r="G6">
+        <v>0.08589438559242366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.00386208056901278</v>
+        <v>0.02038413577027637</v>
       </c>
       <c r="C7">
-        <v>-0.004019535116079263</v>
+        <v>-0.03846860282577222</v>
       </c>
       <c r="D7">
-        <v>-0.03542302893085469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01484718700238342</v>
+      </c>
+      <c r="E7">
+        <v>0.01844680254681605</v>
+      </c>
+      <c r="F7">
+        <v>-0.003568339765914461</v>
+      </c>
+      <c r="G7">
+        <v>0.1280047865072809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001187192997591833</v>
+        <v>0.003808449270099823</v>
       </c>
       <c r="C8">
-        <v>-0.001499973860434592</v>
+        <v>-0.02222227550338928</v>
       </c>
       <c r="D8">
-        <v>0.002514505761588009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003898574353527936</v>
+      </c>
+      <c r="E8">
+        <v>0.03159299955190491</v>
+      </c>
+      <c r="F8">
+        <v>0.001867263443339496</v>
+      </c>
+      <c r="G8">
+        <v>0.06927443502806414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01323744611907489</v>
+        <v>0.03284729216326877</v>
       </c>
       <c r="C9">
-        <v>-0.003028988103660956</v>
+        <v>-0.04733135582957775</v>
       </c>
       <c r="D9">
-        <v>-0.03818920862836035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01667661699496506</v>
+      </c>
+      <c r="E9">
+        <v>0.02787924311334373</v>
+      </c>
+      <c r="F9">
+        <v>-0.0008026815215406039</v>
+      </c>
+      <c r="G9">
+        <v>0.1039317862757212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1248722623925235</v>
+        <v>0.09965434198653744</v>
       </c>
       <c r="C10">
-        <v>0.005053158122971758</v>
+        <v>0.1854648574043229</v>
       </c>
       <c r="D10">
-        <v>0.1771703078775641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01550728514176324</v>
+      </c>
+      <c r="E10">
+        <v>0.02108690632166784</v>
+      </c>
+      <c r="F10">
+        <v>0.02286888356127298</v>
+      </c>
+      <c r="G10">
+        <v>0.05370473885206111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.01944743949442884</v>
+        <v>0.03524712764541345</v>
       </c>
       <c r="C11">
-        <v>0.01512104581561476</v>
+        <v>-0.05218467772328764</v>
       </c>
       <c r="D11">
-        <v>-0.050600678807845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002631504876618077</v>
+      </c>
+      <c r="E11">
+        <v>0.02144027862218374</v>
+      </c>
+      <c r="F11">
+        <v>-0.01530610394667651</v>
+      </c>
+      <c r="G11">
+        <v>0.08663542543754138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02149980656574556</v>
+        <v>0.03746990119158678</v>
       </c>
       <c r="C12">
-        <v>0.009321032377125976</v>
+        <v>-0.04732979287097871</v>
       </c>
       <c r="D12">
-        <v>-0.04510727421419163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006643271340199661</v>
+      </c>
+      <c r="E12">
+        <v>0.01080007704703859</v>
+      </c>
+      <c r="F12">
+        <v>-0.002168337478224508</v>
+      </c>
+      <c r="G12">
+        <v>0.08227902069986577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.008674572718845371</v>
+        <v>0.01268072558555461</v>
       </c>
       <c r="C13">
-        <v>-0.01401916927688847</v>
+        <v>-0.03900746694829797</v>
       </c>
       <c r="D13">
-        <v>-0.03165323587066968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02804140218841867</v>
+      </c>
+      <c r="E13">
+        <v>0.05171965566996265</v>
+      </c>
+      <c r="F13">
+        <v>0.01294555905776704</v>
+      </c>
+      <c r="G13">
+        <v>0.1453564423149154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001979258709541053</v>
+        <v>0.009827414552960939</v>
       </c>
       <c r="C14">
-        <v>-0.003034660027053972</v>
+        <v>-0.0275401094771748</v>
       </c>
       <c r="D14">
-        <v>-0.02131786461209666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01076054447705343</v>
+      </c>
+      <c r="E14">
+        <v>0.01303304741639972</v>
+      </c>
+      <c r="F14">
+        <v>0.006910110704951033</v>
+      </c>
+      <c r="G14">
+        <v>0.1145499422607842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.01867448953617767</v>
+        <v>0.03388594157716644</v>
       </c>
       <c r="C16">
-        <v>0.01209502251510927</v>
+        <v>-0.04520144047234124</v>
       </c>
       <c r="D16">
-        <v>-0.03703755081629095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002197781676003894</v>
+      </c>
+      <c r="E16">
+        <v>0.01772618727178165</v>
+      </c>
+      <c r="F16">
+        <v>0.004326057955673038</v>
+      </c>
+      <c r="G16">
+        <v>0.09084530154498016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01997763142952267</v>
+        <v>0.02009819991430786</v>
       </c>
       <c r="C19">
-        <v>0.002109500637790804</v>
+        <v>-0.05013424679112958</v>
       </c>
       <c r="D19">
-        <v>-0.04986097242151695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02078558582951928</v>
+      </c>
+      <c r="E19">
+        <v>0.08805576119230318</v>
+      </c>
+      <c r="F19">
+        <v>0.005468648840226351</v>
+      </c>
+      <c r="G19">
+        <v>0.1421042770436453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.005158373059853756</v>
+        <v>0.01481379500065304</v>
       </c>
       <c r="C20">
-        <v>-0.003020904299998135</v>
+        <v>-0.04099650818985916</v>
       </c>
       <c r="D20">
-        <v>-0.03391110102021811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01515577175258102</v>
+      </c>
+      <c r="E20">
+        <v>0.04204487871228711</v>
+      </c>
+      <c r="F20">
+        <v>0.02347134930405456</v>
+      </c>
+      <c r="G20">
+        <v>0.1156009561498922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0004805455566760916</v>
+        <v>0.009390675770287717</v>
       </c>
       <c r="C21">
-        <v>-0.008720464138440482</v>
+        <v>-0.03778444417267371</v>
       </c>
       <c r="D21">
-        <v>-0.02642327494790371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02012162388413501</v>
+      </c>
+      <c r="E21">
+        <v>0.05100962991751607</v>
+      </c>
+      <c r="F21">
+        <v>0.0128268748681768</v>
+      </c>
+      <c r="G21">
+        <v>0.1438220516396598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001001429525237336</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006400271512117708</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002213951700755891</v>
+      </c>
+      <c r="E22">
+        <v>0.01810086724002705</v>
+      </c>
+      <c r="F22">
+        <v>-0.005802283574626032</v>
+      </c>
+      <c r="G22">
+        <v>0.004383796815453528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001011038828338976</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006367837098228356</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002209787836333174</v>
+      </c>
+      <c r="E23">
+        <v>0.01811306009666798</v>
+      </c>
+      <c r="F23">
+        <v>-0.005592676892218679</v>
+      </c>
+      <c r="G23">
+        <v>0.004220903784245589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0117311323770617</v>
+        <v>0.02923716953587066</v>
       </c>
       <c r="C24">
-        <v>0.006561249392906448</v>
+        <v>-0.04882223781923763</v>
       </c>
       <c r="D24">
-        <v>-0.04314370055015292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.00730754301641796</v>
+      </c>
+      <c r="E24">
+        <v>0.01655908843958271</v>
+      </c>
+      <c r="F24">
+        <v>-0.006482749529660591</v>
+      </c>
+      <c r="G24">
+        <v>0.09038357724422652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.02867509806393523</v>
+        <v>0.04240985270789479</v>
       </c>
       <c r="C25">
-        <v>0.008306835821111545</v>
+        <v>-0.05669845742952259</v>
       </c>
       <c r="D25">
-        <v>-0.05501604430516085</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01140248027111226</v>
+      </c>
+      <c r="E25">
+        <v>0.007861099294283825</v>
+      </c>
+      <c r="F25">
+        <v>-0.004939188507724511</v>
+      </c>
+      <c r="G25">
+        <v>0.09629805529927925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.003492783907526311</v>
+        <v>0.01446997643827676</v>
       </c>
       <c r="C26">
-        <v>-0.02138722870320883</v>
+        <v>-0.01119187730320317</v>
       </c>
       <c r="D26">
-        <v>-0.005671919131535071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02424551256885195</v>
+      </c>
+      <c r="E26">
+        <v>0.008839590013693893</v>
+      </c>
+      <c r="F26">
+        <v>0.006249488653443817</v>
+      </c>
+      <c r="G26">
+        <v>0.08547390671289572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1608901528828871</v>
+        <v>0.1299564521619661</v>
       </c>
       <c r="C28">
-        <v>-0.004074065292504796</v>
+        <v>0.2423707950470137</v>
       </c>
       <c r="D28">
-        <v>0.203781715661172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006882219931642767</v>
+      </c>
+      <c r="E28">
+        <v>0.001850803439330235</v>
+      </c>
+      <c r="F28">
+        <v>0.02132248759545683</v>
+      </c>
+      <c r="G28">
+        <v>0.0465131922838033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007269722447713683</v>
+        <v>0.009235253454968628</v>
       </c>
       <c r="C29">
-        <v>-0.001715785429815795</v>
+        <v>-0.0233483151435977</v>
       </c>
       <c r="D29">
-        <v>-0.01815016853840182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009620019284650881</v>
+      </c>
+      <c r="E29">
+        <v>0.005722653611164624</v>
+      </c>
+      <c r="F29">
+        <v>0.01223982464038904</v>
+      </c>
+      <c r="G29">
+        <v>0.1031133911792153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03039126336448711</v>
+        <v>0.03933308401361243</v>
       </c>
       <c r="C30">
-        <v>0.001370569221862637</v>
+        <v>-0.06646720773766507</v>
       </c>
       <c r="D30">
-        <v>-0.08929385432503442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03012996878827688</v>
+      </c>
+      <c r="E30">
+        <v>0.07068741919134913</v>
+      </c>
+      <c r="F30">
+        <v>-0.0223201037876483</v>
+      </c>
+      <c r="G30">
+        <v>0.1296741259740028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02820884635074301</v>
+        <v>0.05337107760482755</v>
       </c>
       <c r="C31">
-        <v>0.006589322968923079</v>
+        <v>-0.03955785599821189</v>
       </c>
       <c r="D31">
-        <v>-0.01739164359948972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003803542703796418</v>
+      </c>
+      <c r="E31">
+        <v>-0.0032056238746602</v>
+      </c>
+      <c r="F31">
+        <v>0.03609480676894501</v>
+      </c>
+      <c r="G31">
+        <v>0.09774456422648807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006817526281841069</v>
+        <v>0.001806916698418066</v>
       </c>
       <c r="C32">
-        <v>0.01369984300035029</v>
+        <v>-0.020935836270466</v>
       </c>
       <c r="D32">
-        <v>-0.02275401957475457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001756813649486965</v>
+      </c>
+      <c r="E32">
+        <v>0.04750467190211968</v>
+      </c>
+      <c r="F32">
+        <v>-0.03106738619564571</v>
+      </c>
+      <c r="G32">
+        <v>0.08249061737185663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01647615537654538</v>
+        <v>0.02749590134879672</v>
       </c>
       <c r="C33">
-        <v>0.002955792975770799</v>
+        <v>-0.05003034244563245</v>
       </c>
       <c r="D33">
-        <v>-0.05055822225201565</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01696117792924235</v>
+      </c>
+      <c r="E33">
+        <v>0.05523853784010153</v>
+      </c>
+      <c r="F33">
+        <v>-0.005818438240994816</v>
+      </c>
+      <c r="G33">
+        <v>0.1605867658897319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.03069903456459483</v>
+        <v>0.04120267488548925</v>
       </c>
       <c r="C34">
-        <v>0.02550282525041918</v>
+        <v>-0.05954042313714292</v>
       </c>
       <c r="D34">
-        <v>-0.0526413349128858</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004255848658729552</v>
+      </c>
+      <c r="E34">
+        <v>0.01359922691866244</v>
+      </c>
+      <c r="F34">
+        <v>-0.01864050121043172</v>
+      </c>
+      <c r="G34">
+        <v>0.09014506441702248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.005578556835112367</v>
+        <v>0.01604950728280947</v>
       </c>
       <c r="C36">
-        <v>-0.009775413156943009</v>
+        <v>-0.00944539263718361</v>
       </c>
       <c r="D36">
-        <v>3.6699392469291e-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01292041032074278</v>
+      </c>
+      <c r="E36">
+        <v>0.01079136257207634</v>
+      </c>
+      <c r="F36">
+        <v>0.009669088408752861</v>
+      </c>
+      <c r="G36">
+        <v>0.09345280015560026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02329876514978502</v>
+        <v>0.03268056069188954</v>
       </c>
       <c r="C38">
-        <v>0.01833372792727326</v>
+        <v>-0.02849409426619826</v>
       </c>
       <c r="D38">
-        <v>-0.01795768455550312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007795014347696816</v>
+      </c>
+      <c r="E38">
+        <v>0.006315511562052608</v>
+      </c>
+      <c r="F38">
+        <v>0.0179602007018164</v>
+      </c>
+      <c r="G38">
+        <v>0.08581299805706102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.008336875306987896</v>
+        <v>0.03566613897565301</v>
       </c>
       <c r="C39">
-        <v>0.011045255907411</v>
+        <v>-0.07801514628815193</v>
       </c>
       <c r="D39">
-        <v>-0.08837690285029833</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01230313405095685</v>
+      </c>
+      <c r="E39">
+        <v>0.03242992544361695</v>
+      </c>
+      <c r="F39">
+        <v>-0.01594603851600661</v>
+      </c>
+      <c r="G39">
+        <v>0.09756330576115418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.02045327169323851</v>
+        <v>0.01400804560224458</v>
       </c>
       <c r="C40">
-        <v>-0.000975215148199976</v>
+        <v>-0.03720938968790548</v>
       </c>
       <c r="D40">
-        <v>-0.0228871006718427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01523171160518027</v>
+      </c>
+      <c r="E40">
+        <v>0.03484686896970268</v>
+      </c>
+      <c r="F40">
+        <v>0.01598484683345272</v>
+      </c>
+      <c r="G40">
+        <v>0.1242575108883953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01123913181010939</v>
+        <v>0.02053746069011859</v>
       </c>
       <c r="C41">
-        <v>-0.001662840404257041</v>
+        <v>-0.002979847809464749</v>
       </c>
       <c r="D41">
-        <v>0.005680294785000268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004926621911832558</v>
+      </c>
+      <c r="E41">
+        <v>0.0102744346826237</v>
+      </c>
+      <c r="F41">
+        <v>0.0150670681236959</v>
+      </c>
+      <c r="G41">
+        <v>0.08983212153739754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0145591898882494</v>
+        <v>0.005234747405199577</v>
       </c>
       <c r="C42">
-        <v>-0.07348612874687969</v>
+        <v>-0.02861280790550209</v>
       </c>
       <c r="D42">
-        <v>-0.07643543871054692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08457320914956715</v>
+      </c>
+      <c r="E42">
+        <v>-0.007847505209283283</v>
+      </c>
+      <c r="F42">
+        <v>0.03721858238933963</v>
+      </c>
+      <c r="G42">
+        <v>-0.02264904916206857</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02468464763515744</v>
+        <v>0.03537393368561625</v>
       </c>
       <c r="C43">
-        <v>0.003788111537535452</v>
+        <v>-0.01742112567390116</v>
       </c>
       <c r="D43">
-        <v>-0.003898927766750454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006263207782044397</v>
+      </c>
+      <c r="E43">
+        <v>0.02571185874704423</v>
+      </c>
+      <c r="F43">
+        <v>0.01156946801373607</v>
+      </c>
+      <c r="G43">
+        <v>0.119281276137216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.007986396199275974</v>
+        <v>0.01308536172551498</v>
       </c>
       <c r="C44">
-        <v>0.008773026488246849</v>
+        <v>-0.05591995411956086</v>
       </c>
       <c r="D44">
-        <v>-0.04943592036850714</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007676358652447236</v>
+      </c>
+      <c r="E44">
+        <v>0.03209346082425674</v>
+      </c>
+      <c r="F44">
+        <v>0.01832616228751708</v>
+      </c>
+      <c r="G44">
+        <v>0.1184787005545389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001915294964348963</v>
+        <v>0.008815834515720428</v>
       </c>
       <c r="C46">
-        <v>-0.01105751291515469</v>
+        <v>-0.01555511724429009</v>
       </c>
       <c r="D46">
-        <v>-0.0009726979610603394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01282757702138935</v>
+      </c>
+      <c r="E46">
+        <v>0.0002618611451622251</v>
+      </c>
+      <c r="F46">
+        <v>0.01527615524028467</v>
+      </c>
+      <c r="G46">
+        <v>0.1083801159183025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.04923174986935941</v>
+        <v>0.07958551695681003</v>
       </c>
       <c r="C47">
-        <v>0.02731930863711717</v>
+        <v>-0.07180207804576499</v>
       </c>
       <c r="D47">
-        <v>-0.05594396464486075</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005030236854281525</v>
+      </c>
+      <c r="E47">
+        <v>-0.01070662022060496</v>
+      </c>
+      <c r="F47">
+        <v>0.04786543484969008</v>
+      </c>
+      <c r="G47">
+        <v>0.08503142881115565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00496524235223389</v>
+        <v>0.01952332581910669</v>
       </c>
       <c r="C48">
-        <v>0.0007509877015934715</v>
+        <v>-0.01309462515477416</v>
       </c>
       <c r="D48">
-        <v>-0.001830665611733941</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002456055405852812</v>
+      </c>
+      <c r="E48">
+        <v>0.005170597277165755</v>
+      </c>
+      <c r="F48">
+        <v>0.02107879247494755</v>
+      </c>
+      <c r="G48">
+        <v>0.1021203463116389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05221147502711958</v>
+        <v>0.07430995135612499</v>
       </c>
       <c r="C50">
-        <v>0.02513126514473744</v>
+        <v>-0.07348272496111573</v>
       </c>
       <c r="D50">
-        <v>-0.04798646753785584</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002187632154844773</v>
+      </c>
+      <c r="E50">
+        <v>-0.01162959538891897</v>
+      </c>
+      <c r="F50">
+        <v>0.04943014644956745</v>
+      </c>
+      <c r="G50">
+        <v>0.09558293211046485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.004663796442113882</v>
+        <v>0.01208020163183061</v>
       </c>
       <c r="C51">
-        <v>0.0005584904198467971</v>
+        <v>-0.03670134160184964</v>
       </c>
       <c r="D51">
-        <v>-0.03014522616750315</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01147333551420326</v>
+      </c>
+      <c r="E51">
+        <v>0.03411381388687539</v>
+      </c>
+      <c r="F51">
+        <v>-0.01155135156922157</v>
+      </c>
+      <c r="G51">
+        <v>0.1234989974750879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07277829163598223</v>
+        <v>0.08134067696750413</v>
       </c>
       <c r="C53">
-        <v>0.0368343577279866</v>
+        <v>-0.08396757847816355</v>
       </c>
       <c r="D53">
-        <v>-0.07791390696508299</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003919544501182074</v>
+      </c>
+      <c r="E53">
+        <v>-0.0323573124241115</v>
+      </c>
+      <c r="F53">
+        <v>0.05385710401642504</v>
+      </c>
+      <c r="G53">
+        <v>0.08940078368406335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01504281539623942</v>
+        <v>0.03246853558526819</v>
       </c>
       <c r="C54">
-        <v>0.0061896208422856</v>
+        <v>-0.01729685985185903</v>
       </c>
       <c r="D54">
-        <v>0.002057452589014407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0006597842219661478</v>
+      </c>
+      <c r="E54">
+        <v>0.02006581410840579</v>
+      </c>
+      <c r="F54">
+        <v>0.01067426068461946</v>
+      </c>
+      <c r="G54">
+        <v>0.1112155873218737</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.04627050273784897</v>
+        <v>0.07398640882323156</v>
       </c>
       <c r="C55">
-        <v>0.0272227768315531</v>
+        <v>-0.06769547508549621</v>
       </c>
       <c r="D55">
-        <v>-0.06094604973091253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005493199687825027</v>
+      </c>
+      <c r="E55">
+        <v>-0.03096545122549857</v>
+      </c>
+      <c r="F55">
+        <v>0.05210291023885472</v>
+      </c>
+      <c r="G55">
+        <v>0.06711213805161356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.104728540112259</v>
+        <v>0.1357073515910461</v>
       </c>
       <c r="C56">
-        <v>0.05729983824609033</v>
+        <v>-0.1068126675910419</v>
       </c>
       <c r="D56">
-        <v>-0.1086881990755897</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01304067866627785</v>
+      </c>
+      <c r="E56">
+        <v>-0.03994371763529016</v>
+      </c>
+      <c r="F56">
+        <v>0.06539432784697879</v>
+      </c>
+      <c r="G56">
+        <v>0.04655176731834208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01262111964606968</v>
+        <v>0.003993791517069603</v>
       </c>
       <c r="C57">
-        <v>-0.01614521758949066</v>
+        <v>-0.0046784386692926</v>
       </c>
       <c r="D57">
-        <v>-0.01684709692833758</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02272591017596015</v>
+      </c>
+      <c r="E57">
+        <v>0.02466946409395912</v>
+      </c>
+      <c r="F57">
+        <v>-0.001197034693551591</v>
+      </c>
+      <c r="G57">
+        <v>0.01667679109825526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.02915906425630501</v>
+        <v>0.04370912702566538</v>
       </c>
       <c r="C58">
-        <v>0.03081024115329618</v>
+        <v>-0.03967905558016738</v>
       </c>
       <c r="D58">
-        <v>-0.1058562873358728</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02882056018439</v>
+      </c>
+      <c r="E58">
+        <v>0.8106149266719854</v>
+      </c>
+      <c r="F58">
+        <v>0.4882096487860675</v>
+      </c>
+      <c r="G58">
+        <v>-0.2517295088083765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1986693109034407</v>
+        <v>0.16041084361597</v>
       </c>
       <c r="C59">
-        <v>0.01333465380042125</v>
+        <v>0.2073962432925785</v>
       </c>
       <c r="D59">
-        <v>0.1949229983462395</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01121549086462128</v>
+      </c>
+      <c r="E59">
+        <v>0.02256819529939275</v>
+      </c>
+      <c r="F59">
+        <v>0.005449575235952259</v>
+      </c>
+      <c r="G59">
+        <v>0.03484404625104977</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3016582933073909</v>
+        <v>0.2872299112500462</v>
       </c>
       <c r="C60">
-        <v>0.0948131256887977</v>
+        <v>-0.1151195953114851</v>
       </c>
       <c r="D60">
-        <v>-0.1607757536342857</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01522646499716654</v>
+      </c>
+      <c r="E60">
+        <v>0.08971380875130842</v>
+      </c>
+      <c r="F60">
+        <v>-0.3213579787350642</v>
+      </c>
+      <c r="G60">
+        <v>-0.1646459818984974</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.01678140601019558</v>
+        <v>0.03920790816582765</v>
       </c>
       <c r="C61">
-        <v>0.01544193693607443</v>
+        <v>-0.06527722314951945</v>
       </c>
       <c r="D61">
-        <v>-0.06835168779720745</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006320369874845886</v>
+      </c>
+      <c r="E61">
+        <v>0.03087170842308637</v>
+      </c>
+      <c r="F61">
+        <v>-0.01056421308457255</v>
+      </c>
+      <c r="G61">
+        <v>0.09799878002801309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008203483768419414</v>
+        <v>0.014567667999705</v>
       </c>
       <c r="C63">
-        <v>0.0006572231797012994</v>
+        <v>-0.0301345555442788</v>
       </c>
       <c r="D63">
-        <v>-0.03035050984381733</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008784359206821867</v>
+      </c>
+      <c r="E63">
+        <v>0.005563744906065316</v>
+      </c>
+      <c r="F63">
+        <v>0.01478317489372499</v>
+      </c>
+      <c r="G63">
+        <v>0.09361045083028303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.03507161736961566</v>
+        <v>0.04983178893523162</v>
       </c>
       <c r="C64">
-        <v>0.01160816151182165</v>
+        <v>-0.04617645055801587</v>
       </c>
       <c r="D64">
-        <v>-0.03649787485976221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005959472788523707</v>
+      </c>
+      <c r="E64">
+        <v>0.005321799662716802</v>
+      </c>
+      <c r="F64">
+        <v>-0.006249197220140015</v>
+      </c>
+      <c r="G64">
+        <v>0.09901578025617921</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.06100545481826824</v>
+        <v>0.07353931159880228</v>
       </c>
       <c r="C65">
-        <v>0.01825958673049844</v>
+        <v>-0.05969262519534489</v>
       </c>
       <c r="D65">
-        <v>-0.09118625998052192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01746415268781722</v>
+      </c>
+      <c r="E65">
+        <v>0.04894320885735631</v>
+      </c>
+      <c r="F65">
+        <v>-0.01164183255592477</v>
+      </c>
+      <c r="G65">
+        <v>0.04060472403121647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.01964480689796418</v>
+        <v>0.04790086203641989</v>
       </c>
       <c r="C66">
-        <v>0.02409561921050581</v>
+        <v>-0.1058786024017551</v>
       </c>
       <c r="D66">
-        <v>-0.1347594487625371</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01301720240912265</v>
+      </c>
+      <c r="E66">
+        <v>0.05297985403985586</v>
+      </c>
+      <c r="F66">
+        <v>-0.02530671102074141</v>
+      </c>
+      <c r="G66">
+        <v>0.1046090410816731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04865502808324472</v>
+        <v>0.05607627776320709</v>
       </c>
       <c r="C67">
-        <v>0.02378058587673233</v>
+        <v>-0.03419610287560218</v>
       </c>
       <c r="D67">
-        <v>-0.02908323573599322</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006362786306108665</v>
+      </c>
+      <c r="E67">
+        <v>-0.004654810672099511</v>
+      </c>
+      <c r="F67">
+        <v>0.01346179315104306</v>
+      </c>
+      <c r="G67">
+        <v>0.07179601957456511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.189264008542228</v>
+        <v>0.1587916974528348</v>
       </c>
       <c r="C68">
-        <v>-0.01789853067055957</v>
+        <v>0.2699082055294983</v>
       </c>
       <c r="D68">
-        <v>0.2360869398259852</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004852025900725697</v>
+      </c>
+      <c r="E68">
+        <v>-0.002181224792183317</v>
+      </c>
+      <c r="F68">
+        <v>0.04503948623868129</v>
+      </c>
+      <c r="G68">
+        <v>0.02009126738232308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.05529010243775397</v>
+        <v>0.08199254341712514</v>
       </c>
       <c r="C69">
-        <v>0.03223867052961872</v>
+        <v>-0.07441964837648307</v>
       </c>
       <c r="D69">
-        <v>-0.052937434786388</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008958763123329633</v>
+      </c>
+      <c r="E69">
+        <v>-0.02369786566438662</v>
+      </c>
+      <c r="F69">
+        <v>0.02820695958982061</v>
+      </c>
+      <c r="G69">
+        <v>0.09752967788203952</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1682591056817893</v>
+        <v>0.1455405138374662</v>
       </c>
       <c r="C71">
-        <v>-0.003652950078739538</v>
+        <v>0.2296237464609974</v>
       </c>
       <c r="D71">
-        <v>0.1941371912795329</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003256478515372986</v>
+      </c>
+      <c r="E71">
+        <v>0.02965049465709897</v>
+      </c>
+      <c r="F71">
+        <v>0.02702774611741703</v>
+      </c>
+      <c r="G71">
+        <v>0.06497241551163836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.06141961321049944</v>
+        <v>0.08702485441523575</v>
       </c>
       <c r="C72">
-        <v>0.03976815178618705</v>
+        <v>-0.06955930582722961</v>
       </c>
       <c r="D72">
-        <v>-0.07523980741417195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008065383316368514</v>
+      </c>
+      <c r="E72">
+        <v>-0.003546483773533575</v>
+      </c>
+      <c r="F72">
+        <v>-0.03481149783540006</v>
+      </c>
+      <c r="G72">
+        <v>0.08367580426167197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3826885518037332</v>
+        <v>0.3713012568268907</v>
       </c>
       <c r="C73">
-        <v>0.1243979376807024</v>
+        <v>-0.121335452202682</v>
       </c>
       <c r="D73">
-        <v>-0.2371961558203989</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02725555710617003</v>
+      </c>
+      <c r="E73">
+        <v>0.2184064847197695</v>
+      </c>
+      <c r="F73">
+        <v>-0.5481660801268264</v>
+      </c>
+      <c r="G73">
+        <v>-0.3165981230636148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09169967078119767</v>
+        <v>0.104840805874735</v>
       </c>
       <c r="C74">
-        <v>0.05539721548736513</v>
+        <v>-0.108922923929161</v>
       </c>
       <c r="D74">
-        <v>-0.1188018758065481</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009466537814109471</v>
+      </c>
+      <c r="E74">
+        <v>-0.01387830774017296</v>
+      </c>
+      <c r="F74">
+        <v>0.05846925466652997</v>
+      </c>
+      <c r="G74">
+        <v>0.0716651176774276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2024029862423223</v>
+        <v>0.2467014618872264</v>
       </c>
       <c r="C75">
-        <v>0.1036692094906803</v>
+        <v>-0.1520893401022256</v>
       </c>
       <c r="D75">
-        <v>-0.1728837116121934</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03221216333262516</v>
+      </c>
+      <c r="E75">
+        <v>-0.1002520687609312</v>
+      </c>
+      <c r="F75">
+        <v>0.1461633544202194</v>
+      </c>
+      <c r="G75">
+        <v>-0.009314336468574243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.102470770641753</v>
+        <v>0.1150296915568397</v>
       </c>
       <c r="C76">
-        <v>0.06586900275583051</v>
+        <v>-0.1107348026924894</v>
       </c>
       <c r="D76">
-        <v>-0.1220460258550516</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01812664309855326</v>
+      </c>
+      <c r="E76">
+        <v>-0.04335976950804957</v>
+      </c>
+      <c r="F76">
+        <v>0.08755030547125932</v>
+      </c>
+      <c r="G76">
+        <v>0.05703184193037066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.03855457276709008</v>
+        <v>0.07118304418639583</v>
       </c>
       <c r="C77">
-        <v>0.01560115720355374</v>
+        <v>-0.05734576991670824</v>
       </c>
       <c r="D77">
-        <v>-0.06862461681138077</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01055001584229741</v>
+      </c>
+      <c r="E77">
+        <v>0.05298323392181729</v>
+      </c>
+      <c r="F77">
+        <v>0.002779949168155652</v>
+      </c>
+      <c r="G77">
+        <v>0.07217802931939474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.02976421108115223</v>
+        <v>0.04210263251002265</v>
       </c>
       <c r="C78">
-        <v>0.01565558955108254</v>
+        <v>-0.0510838210762236</v>
       </c>
       <c r="D78">
-        <v>-0.05857398954845833</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.007183985462396442</v>
+      </c>
+      <c r="E78">
+        <v>0.04241251804892135</v>
+      </c>
+      <c r="F78">
+        <v>-0.02993494923938732</v>
+      </c>
+      <c r="G78">
+        <v>0.1030044835371407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001425970349096063</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.00110231309114651</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0005107275161354005</v>
+      </c>
+      <c r="E79">
+        <v>0.005925714834474321</v>
+      </c>
+      <c r="F79">
+        <v>0.00028369559274279</v>
+      </c>
+      <c r="G79">
+        <v>0.004565754980223719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04561141722995635</v>
+        <v>0.04186921358223341</v>
       </c>
       <c r="C80">
-        <v>0.01447192807635995</v>
+        <v>-0.05385450814577369</v>
       </c>
       <c r="D80">
-        <v>-0.06949706028663678</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01397592527508422</v>
+      </c>
+      <c r="E80">
+        <v>0.03137635763468387</v>
+      </c>
+      <c r="F80">
+        <v>0.001720407694400407</v>
+      </c>
+      <c r="G80">
+        <v>0.05366599462746308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1098416046189626</v>
+        <v>0.1384265893064316</v>
       </c>
       <c r="C81">
-        <v>0.05502378263540098</v>
+        <v>-0.09567550338494603</v>
       </c>
       <c r="D81">
-        <v>-0.08854719675970629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01573035165971911</v>
+      </c>
+      <c r="E81">
+        <v>-0.05977408743392183</v>
+      </c>
+      <c r="F81">
+        <v>0.1131150699952244</v>
+      </c>
+      <c r="G81">
+        <v>0.02316915979555509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.02637259460651154</v>
+        <v>0.1481774484072054</v>
       </c>
       <c r="C82">
-        <v>0.01172709125951376</v>
+        <v>-0.0887909956564828</v>
       </c>
       <c r="D82">
-        <v>-0.02215292068497777</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01354564569235944</v>
+      </c>
+      <c r="E82">
+        <v>-0.1307823478705245</v>
+      </c>
+      <c r="F82">
+        <v>0.04241083316797958</v>
+      </c>
+      <c r="G82">
+        <v>0.05778297230991255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02013876040039097</v>
+        <v>0.03390499146494789</v>
       </c>
       <c r="C83">
-        <v>0.005149839169963782</v>
+        <v>-0.03283342708562145</v>
       </c>
       <c r="D83">
-        <v>-0.02128755493211909</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006901550203383759</v>
+      </c>
+      <c r="E83">
+        <v>0.03467729181409492</v>
+      </c>
+      <c r="F83">
+        <v>-0.03170191274553223</v>
+      </c>
+      <c r="G83">
+        <v>0.05779479838437641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2005596151499178</v>
+        <v>0.2082495387594258</v>
       </c>
       <c r="C85">
-        <v>0.09475333987072876</v>
+        <v>-0.145861488277895</v>
       </c>
       <c r="D85">
-        <v>-0.1905103300645991</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01766893041463267</v>
+      </c>
+      <c r="E85">
+        <v>-0.1144178537948192</v>
+      </c>
+      <c r="F85">
+        <v>0.08101622935790062</v>
+      </c>
+      <c r="G85">
+        <v>-0.04869547008656765</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01561050866341584</v>
+        <v>0.01354268329372907</v>
       </c>
       <c r="C86">
-        <v>0.003881486057755578</v>
+        <v>-0.02748963678507725</v>
       </c>
       <c r="D86">
-        <v>-0.028009323802333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01262884422839011</v>
+      </c>
+      <c r="E86">
+        <v>0.06492109101698612</v>
+      </c>
+      <c r="F86">
+        <v>-0.0228219644578744</v>
+      </c>
+      <c r="G86">
+        <v>0.1829464418947341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.004649112659315092</v>
+        <v>0.02154707640109992</v>
       </c>
       <c r="C87">
-        <v>-0.00434509964870497</v>
+        <v>-0.01641394339935166</v>
       </c>
       <c r="D87">
-        <v>-0.02811629563552419</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01311633333449985</v>
+      </c>
+      <c r="E87">
+        <v>0.1003662769817198</v>
+      </c>
+      <c r="F87">
+        <v>0.01776225146307889</v>
+      </c>
+      <c r="G87">
+        <v>0.1233052697250886</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06721989514890753</v>
+        <v>0.09111248766145326</v>
       </c>
       <c r="C88">
-        <v>0.005524068347998047</v>
+        <v>-0.07095586026968119</v>
       </c>
       <c r="D88">
-        <v>-0.06142788760473335</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02240961227822996</v>
+      </c>
+      <c r="E88">
+        <v>-0.002764587806376893</v>
+      </c>
+      <c r="F88">
+        <v>0.02151908119407842</v>
+      </c>
+      <c r="G88">
+        <v>0.101270067940423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2888017370367026</v>
+        <v>0.2337459553099841</v>
       </c>
       <c r="C89">
-        <v>-0.01215585323252894</v>
+        <v>0.3656713006325185</v>
       </c>
       <c r="D89">
-        <v>0.3324097329202778</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0001952064339655984</v>
+      </c>
+      <c r="E89">
+        <v>-0.02536400649348716</v>
+      </c>
+      <c r="F89">
+        <v>0.02003816253955893</v>
+      </c>
+      <c r="G89">
+        <v>0.07957316005684138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2427924047076223</v>
+        <v>0.2116939963702938</v>
       </c>
       <c r="C90">
-        <v>-0.01005970602020563</v>
+        <v>0.3154591549435576</v>
       </c>
       <c r="D90">
-        <v>0.2955196369154388</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004693103791373668</v>
+      </c>
+      <c r="E90">
+        <v>-0.007784034509808348</v>
+      </c>
+      <c r="F90">
+        <v>0.04805965868973634</v>
+      </c>
+      <c r="G90">
+        <v>0.05263480807851647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1590987441498958</v>
+        <v>0.1848291182435512</v>
       </c>
       <c r="C91">
-        <v>0.07914761813057963</v>
+        <v>-0.1365166751104197</v>
       </c>
       <c r="D91">
-        <v>-0.1154185519658257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.023129857915953</v>
+      </c>
+      <c r="E91">
+        <v>-0.0835131363808943</v>
+      </c>
+      <c r="F91">
+        <v>0.1142620150293759</v>
+      </c>
+      <c r="G91">
+        <v>0.03032010241167534</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2289412417183593</v>
+        <v>0.1994585576140943</v>
       </c>
       <c r="C92">
-        <v>0.03658642296666652</v>
+        <v>0.2577485946752583</v>
       </c>
       <c r="D92">
-        <v>0.2313841127007101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03853331371617449</v>
+      </c>
+      <c r="E92">
+        <v>0.02158391846269241</v>
+      </c>
+      <c r="F92">
+        <v>0.05749266535283992</v>
+      </c>
+      <c r="G92">
+        <v>0.09114432189217442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2668171140810855</v>
+        <v>0.2350535252051829</v>
       </c>
       <c r="C93">
-        <v>0.006595229307123172</v>
+        <v>0.3082270764830361</v>
       </c>
       <c r="D93">
-        <v>0.2749722218870727</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01097442386382183</v>
+      </c>
+      <c r="E93">
+        <v>0.003131192177722624</v>
+      </c>
+      <c r="F93">
+        <v>0.03906763265654636</v>
+      </c>
+      <c r="G93">
+        <v>0.05941199920620848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2223749723192354</v>
+        <v>0.3203598370840124</v>
       </c>
       <c r="C94">
-        <v>0.08809874547304933</v>
+        <v>-0.1942046816136204</v>
       </c>
       <c r="D94">
-        <v>-0.1782939442081743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02491056479774213</v>
+      </c>
+      <c r="E94">
+        <v>-0.3383261081668354</v>
+      </c>
+      <c r="F94">
+        <v>0.4230499902664246</v>
+      </c>
+      <c r="G94">
+        <v>-0.3867045023906012</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.06726479127568626</v>
+        <v>0.09403652138129884</v>
       </c>
       <c r="C95">
-        <v>0.05164674621277739</v>
+        <v>-0.08028327150603014</v>
       </c>
       <c r="D95">
-        <v>-0.1319897225015075</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009993584996437682</v>
+      </c>
+      <c r="E95">
+        <v>0.1011854908824712</v>
+      </c>
+      <c r="F95">
+        <v>-0.1568337099850471</v>
+      </c>
+      <c r="G95">
+        <v>0.04676113549145559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1867532302134298</v>
+        <v>0.1899701380651582</v>
       </c>
       <c r="C98">
-        <v>0.07831181437491752</v>
+        <v>-0.04936251316758634</v>
       </c>
       <c r="D98">
-        <v>-0.07951949031460999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01016266461039764</v>
+      </c>
+      <c r="E98">
+        <v>0.1266230133526059</v>
+      </c>
+      <c r="F98">
+        <v>-0.211255934147167</v>
+      </c>
+      <c r="G98">
+        <v>-0.03711697487235625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006961604822339939</v>
+        <v>0.009078555183350512</v>
       </c>
       <c r="C101">
-        <v>-0.001591099685553684</v>
+        <v>-0.02322744541048487</v>
       </c>
       <c r="D101">
-        <v>-0.01838133360995815</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009441076381048833</v>
+      </c>
+      <c r="E101">
+        <v>0.005296542476970774</v>
+      </c>
+      <c r="F101">
+        <v>0.01313615388005052</v>
+      </c>
+      <c r="G101">
+        <v>0.1027439026782869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1006193444993859</v>
+        <v>0.1174062287298781</v>
       </c>
       <c r="C102">
-        <v>0.03729983636492325</v>
+        <v>-0.08527628393122615</v>
       </c>
       <c r="D102">
-        <v>-0.08686119468151539</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0004490399356230543</v>
+      </c>
+      <c r="E102">
+        <v>-0.04168541605411789</v>
+      </c>
+      <c r="F102">
+        <v>0.02564065380356093</v>
+      </c>
+      <c r="G102">
+        <v>0.01576254367643246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.2294471242515311</v>
+        <v>0.02116495608397069</v>
       </c>
       <c r="C104">
-        <v>-0.9466515996762764</v>
+        <v>0.02961890194540567</v>
       </c>
       <c r="D104">
-        <v>-0.1840249058283859</v>
+        <v>0.987195914942443</v>
+      </c>
+      <c r="E104">
+        <v>-0.0702048341918136</v>
+      </c>
+      <c r="F104">
+        <v>0.02677276934904595</v>
+      </c>
+      <c r="G104">
+        <v>-0.03951473248142408</v>
       </c>
     </row>
   </sheetData>
